--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ACD/15/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ACD/15/seed4/result_data_KNN.xlsx
@@ -491,7 +491,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.574</v>
+        <v>-13.376</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -555,16 +555,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.856</v>
+        <v>-21.882</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
       </c>
       <c r="C9" t="n">
-        <v>-11.982</v>
+        <v>-12.42</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.646000000000001</v>
+        <v>-7.866</v>
       </c>
     </row>
     <row r="10">
@@ -589,7 +589,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-11.948</v>
+        <v>-12.126</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.162</v>
+        <v>-21.898</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-20.528</v>
+        <v>-20.636</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -757,7 +757,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.886</v>
+        <v>-12.919</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -771,7 +771,7 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-12.93</v>
+        <v>-12.38</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
@@ -799,7 +799,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-11.592</v>
+        <v>-12.311</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.64</v>
+        <v>-21.859</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -816,7 +816,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-7.159999999999999</v>
+        <v>-7.683000000000002</v>
       </c>
     </row>
     <row r="28">
@@ -844,7 +844,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.712000000000001</v>
+        <v>-7.709999999999999</v>
       </c>
     </row>
     <row r="30">
@@ -886,7 +886,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-7.184</v>
+        <v>-7.382</v>
       </c>
     </row>
     <row r="33">
@@ -911,7 +911,7 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-11.74</v>
+        <v>-12.049</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
@@ -919,13 +919,13 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-20.29</v>
+        <v>-20.186</v>
       </c>
       <c r="B35" t="n">
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.248</v>
+        <v>-12.12</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -956,7 +956,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.859999999999999</v>
+        <v>-7.87</v>
       </c>
     </row>
     <row r="38">
@@ -970,7 +970,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-8.179999999999998</v>
+        <v>-7.873</v>
       </c>
     </row>
     <row r="39">
@@ -1012,7 +1012,7 @@
         <v>-14.21</v>
       </c>
       <c r="D41" t="n">
-        <v>-7.438</v>
+        <v>-7.904999999999999</v>
       </c>
     </row>
     <row r="42">
@@ -1068,7 +1068,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.122</v>
+        <v>-7.525</v>
       </c>
     </row>
     <row r="46">
@@ -1107,7 +1107,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-12.21</v>
+        <v>-11.742</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1121,7 +1121,7 @@
         <v>4.95</v>
       </c>
       <c r="C49" t="n">
-        <v>-13.21</v>
+        <v>-12.996</v>
       </c>
       <c r="D49" t="n">
         <v>-9.210000000000001</v>
@@ -1152,7 +1152,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.718000000000001</v>
+        <v>-8.06</v>
       </c>
     </row>
     <row r="52">
@@ -1163,7 +1163,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.746</v>
+        <v>-11.95</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1236,7 +1236,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.030000000000001</v>
+        <v>-8.296000000000001</v>
       </c>
     </row>
     <row r="58">
@@ -1334,7 +1334,7 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-7.76</v>
+        <v>-7.887999999999998</v>
       </c>
     </row>
     <row r="65">
@@ -1359,7 +1359,7 @@
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-11.31</v>
+        <v>-11.586</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
@@ -1373,7 +1373,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-12.158</v>
+        <v>-11.59</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.61</v>
+        <v>-21.593</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-20.49</v>
+        <v>-20.241</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1521,13 +1521,13 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-20.274</v>
+        <v>-20.402</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-12.494</v>
+        <v>-12.822</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1555,7 +1555,7 @@
         <v>11.21</v>
       </c>
       <c r="C80" t="n">
-        <v>-12.32</v>
+        <v>-12.404</v>
       </c>
       <c r="D80" t="n">
         <v>-6.63</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.682</v>
+        <v>-21.801</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1586,12 +1586,12 @@
         <v>-14.08</v>
       </c>
       <c r="D82" t="n">
-        <v>-7.470000000000001</v>
+        <v>-7.897</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.676</v>
+        <v>-21.84</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.554</v>
+        <v>-21.428</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1740,7 +1740,7 @@
         <v>-10.09</v>
       </c>
       <c r="D93" t="n">
-        <v>-7.092000000000001</v>
+        <v>-7.214</v>
       </c>
     </row>
     <row r="94">
@@ -1821,7 +1821,7 @@
         <v>5.08</v>
       </c>
       <c r="C99" t="n">
-        <v>-12.014</v>
+        <v>-11.695</v>
       </c>
       <c r="D99" t="n">
         <v>-7.59</v>
@@ -1866,7 +1866,7 @@
         <v>-12.7</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.525999999999999</v>
+        <v>-7.811</v>
       </c>
     </row>
     <row r="103">
@@ -1891,7 +1891,7 @@
         <v>7.61</v>
       </c>
       <c r="C104" t="n">
-        <v>-13.188</v>
+        <v>-12.906</v>
       </c>
       <c r="D104" t="n">
         <v>-7.34</v>
@@ -1908,7 +1908,7 @@
         <v>-12</v>
       </c>
       <c r="D105" t="n">
-        <v>-7.896000000000001</v>
+        <v>-7.876</v>
       </c>
     </row>
   </sheetData>
